--- a/02-Diseño/MATRIZ  DE TRAZABILIDAD.xlsx
+++ b/02-Diseño/MATRIZ  DE TRAZABILIDAD.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ENTORNOS\ANÁLISIS DEL SOFTWARE\Tarea 4 Matriz de trazabilidad\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alumno\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{49973F42-6DA8-44D4-A1B1-BB7DB9D68D01}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8055"/>
   </bookViews>
   <sheets>
     <sheet name="Lista de tareas pendientes" sheetId="1" r:id="rId1"/>
@@ -20,7 +19,7 @@
     <definedName name="Título1">Lista_de_tareas_pendientes[[#Headers],[ID_REQ]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'Lista de tareas pendientes'!$9:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -203,9 +202,6 @@
     <t>Guardar partida</t>
   </si>
   <si>
-    <t>Cargar Partida</t>
-  </si>
-  <si>
     <t>Jugar Partida</t>
   </si>
   <si>
@@ -230,9 +226,6 @@
     <t>UC-004</t>
   </si>
   <si>
-    <t>UC-005</t>
-  </si>
-  <si>
     <t>UC-006</t>
   </si>
   <si>
@@ -252,12 +245,18 @@
   </si>
   <si>
     <t>Fecha de revisión</t>
+  </si>
+  <si>
+    <t>UC-007</t>
+  </si>
+  <si>
+    <t>Guardar informacion</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="5">
     <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
@@ -477,55 +476,55 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="15">
-    <cellStyle name="Año del calendario" xfId="14" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Año del calendario" xfId="14"/>
     <cellStyle name="Encabezado 1" xfId="2" builtinId="16" customBuiltin="1"/>
     <cellStyle name="Encabezado 4" xfId="9" builtinId="19" customBuiltin="1"/>
-    <cellStyle name="Fecha" xfId="11" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Finalizado o vencido" xfId="13" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="Fecha" xfId="11"/>
+    <cellStyle name="Finalizado o vencido" xfId="13"/>
     <cellStyle name="Millares" xfId="5" builtinId="3" customBuiltin="1"/>
     <cellStyle name="Millares [0]" xfId="6" builtinId="6" customBuiltin="1"/>
     <cellStyle name="Moneda" xfId="7" builtinId="4" customBuiltin="1"/>
@@ -709,12 +708,12 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="Lista de tareas pendientes" defaultPivotStyle="PivotStyleMedium13">
-    <tableStyle name="Lista de tareas pendientes" pivot="0" count="3" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="Lista de tareas pendientes" pivot="0" count="3">
       <tableStyleElement type="wholeTable" dxfId="14"/>
       <tableStyleElement type="headerRow" dxfId="13"/>
       <tableStyleElement type="secondRowStripe" dxfId="12"/>
     </tableStyle>
-    <tableStyle name="Tabla dinámica de lista de tareas pendientes" table="0" count="11" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="Tabla dinámica de lista de tareas pendientes" table="0" count="11">
       <tableStyleElement type="headerRow" dxfId="11"/>
       <tableStyleElement type="totalRow" dxfId="10"/>
       <tableStyleElement type="firstRowStripe" dxfId="9"/>
@@ -853,13 +852,13 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Lista_de_tareas_pendientes" displayName="Lista_de_tareas_pendientes" ref="D9:G37" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="D9:G37" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Lista_de_tareas_pendientes" displayName="Lista_de_tareas_pendientes" ref="D9:G37" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="D9:G37"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="ID_REQ" dataCellStyle="Normal"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Requisitos" dataCellStyle="Normal"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Definición de Casos de Uso" dataDxfId="0" dataCellStyle="Normal"/>
-    <tableColumn id="2" xr3:uid="{C7ADD2B4-7523-468F-91C3-73DC755A344F}" name="ID_CAS" dataCellStyle="Normal"/>
+    <tableColumn id="1" name="ID_REQ" dataCellStyle="Normal"/>
+    <tableColumn id="3" name="Requisitos" dataCellStyle="Normal"/>
+    <tableColumn id="10" name="Definición de Casos de Uso" dataDxfId="0" dataCellStyle="Normal"/>
+    <tableColumn id="2" name="ID_CAS" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="Lista de tareas pendientes" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1166,470 +1165,470 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="3" tint="0.39997558519241921"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:M37"/>
+  <dimension ref="A2:K37"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.69921875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.75" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="19" customWidth="1"/>
     <col min="3" max="3" width="27" customWidth="1"/>
-    <col min="4" max="4" width="20.59765625" customWidth="1"/>
-    <col min="5" max="5" width="81.69921875" customWidth="1"/>
-    <col min="6" max="6" width="37.296875" customWidth="1"/>
-    <col min="7" max="8" width="20.3984375" customWidth="1"/>
-    <col min="9" max="9" width="18.59765625" customWidth="1"/>
-    <col min="10" max="10" width="20.19921875" customWidth="1"/>
-    <col min="11" max="11" width="30.59765625" customWidth="1"/>
-    <col min="12" max="12" width="2.59765625" customWidth="1"/>
+    <col min="4" max="4" width="20.625" customWidth="1"/>
+    <col min="5" max="5" width="81.75" customWidth="1"/>
+    <col min="6" max="6" width="37.25" customWidth="1"/>
+    <col min="7" max="8" width="20.375" customWidth="1"/>
+    <col min="9" max="9" width="18.625" customWidth="1"/>
+    <col min="10" max="10" width="20.25" customWidth="1"/>
+    <col min="11" max="11" width="30.625" customWidth="1"/>
+    <col min="12" max="12" width="2.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="13"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="E2" s="5"/>
-    </row>
-    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="11" t="s">
+    <row r="2" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="12"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
+      <c r="E2" s="4"/>
+    </row>
+    <row r="3" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B4" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>68</v>
       </c>
-      <c r="E3" s="6"/>
-    </row>
-    <row r="4" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="11" t="s">
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B5" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C5" s="9"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="E4" s="6"/>
-    </row>
-    <row r="5" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C5" s="10"/>
-      <c r="E5" s="6"/>
-    </row>
-    <row r="6" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C6" s="14">
+      <c r="C6" s="13">
         <v>43896</v>
       </c>
-      <c r="E6" s="6"/>
-    </row>
-    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="8"/>
-      <c r="C7" s="9"/>
-      <c r="E7" s="6"/>
-    </row>
-    <row r="8" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C8" s="7"/>
-      <c r="D8" s="1" t="s">
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="7"/>
+      <c r="C7" s="8"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8" spans="1:11" ht="69" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="6"/>
+      <c r="D8" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D9" s="3" t="s">
+      <c r="E8" s="14"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="J8" s="14"/>
+      <c r="K8" s="14"/>
+    </row>
+    <row r="9" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D9" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F9" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E9" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F9" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D10" t="s">
         <v>1</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="G10" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G10" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D11" t="s">
         <v>2</v>
       </c>
       <c r="E11" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G11" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>3</v>
       </c>
       <c r="E12" t="s">
         <v>29</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="G12" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G12" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D13" t="s">
         <v>4</v>
       </c>
       <c r="E13" t="s">
         <v>30</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G13" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F13" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D14" t="s">
         <v>5</v>
       </c>
-      <c r="E14" s="2" t="s">
+      <c r="E14" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F14" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D15" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="2" t="s">
+      <c r="E15" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="F15" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G15" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G15" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="D16" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="2" t="s">
+      <c r="E16" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="F16" s="4" t="s">
+      <c r="F16" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D17" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D18" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G18" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D19" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G19" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="G16" s="2" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="17" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D17" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="F17" s="4" t="s">
+      <c r="G20" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G21" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D22" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G22" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G24" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D26" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G26" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D27" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F27" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G27" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="28" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D28" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G28" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="29" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D29" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="F29" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G29" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="30" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D30" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="31" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G31" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D32" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="33" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D33" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="F33" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="G33" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D34" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E34" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="F34" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="18" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D18" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E18" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="F18" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="19" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E19" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G19" s="2" t="s">
+      <c r="G34" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="20" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D20" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="E20" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G20" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D21" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="22" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D22" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="E22" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G22" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="23" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D23" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D24" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="25" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D25" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="F25" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="26" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D26" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="F26" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="27" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D27" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="E27" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="F27" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G27" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D28" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="F28" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="29" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D29" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="F29" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D30" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="31" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D31" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="G31" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="32" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D32" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="G32" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D33" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E33" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="G33" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="34" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="E34" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F34" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G34" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="35" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D35" s="2"/>
-      <c r="E35" s="2"/>
-      <c r="F35" s="4"/>
-      <c r="G35" s="2"/>
-    </row>
-    <row r="36" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D36" s="2"/>
-      <c r="E36" s="2"/>
-      <c r="F36" s="4"/>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D37" s="2"/>
-      <c r="E37" s="2"/>
-      <c r="F37" s="4"/>
-      <c r="G37" s="2"/>
+    <row r="35" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="3"/>
+      <c r="G35" s="1"/>
+    </row>
+    <row r="36" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="3"/>
+      <c r="G36" s="1"/>
+    </row>
+    <row r="37" spans="4:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="3"/>
+      <c r="G37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1637,11 +1636,11 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="El título de la hoja de cálculo se encuentra en esta celda." sqref="D8" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escriba la tarea en esta columna, debajo de este encabezado. Use filtros de encabezado para buscar una entrada concreta." sqref="D9 G9" xr:uid="{00000000-0002-0000-0000-000002000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Seleccione la prioridad en esta columna, debajo de este encabezado. Pulse ALT+FLECHA ABAJO para abrir la lista desplegable y después ENTRAR para realizar la selección." sqref="E9" xr:uid="{00000000-0002-0000-0000-000003000000}"/>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escriba las notas en la columna con este encabezado." sqref="F9" xr:uid="{00000000-0002-0000-0000-000009000000}"/>
-    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione una entrada de la lista. Seleccione CANCELAR y después pulse ALT+FLECHA ABAJO para abrir la lista desplegable. Pulse ENTRAR para realizar la selección." sqref="E10:E37" xr:uid="{00000000-0002-0000-0000-00000C000000}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="El título de la hoja de cálculo se encuentra en esta celda." sqref="D8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escriba la tarea en esta columna, debajo de este encabezado. Use filtros de encabezado para buscar una entrada concreta." sqref="D9 G9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Seleccione la prioridad en esta columna, debajo de este encabezado. Pulse ALT+FLECHA ABAJO para abrir la lista desplegable y después ENTRAR para realizar la selección." sqref="E9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Escriba las notas en la columna con este encabezado." sqref="F9"/>
+    <dataValidation type="list" errorStyle="warning" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="Seleccione una entrada de la lista. Seleccione CANCELAR y después pulse ALT+FLECHA ABAJO para abrir la lista desplegable. Pulse ENTRAR para realizar la selección." sqref="E10:E37">
       <formula1>"Baja, Normal, Alta"</formula1>
     </dataValidation>
   </dataValidations>
